--- a/PccuClub/Template/校外建議場地_template.xlsx
+++ b/PccuClub/Template/校外建議場地_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PushuData\2023\Project\Pccu\SRC2\PccuClub\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PushuData\2023\Project\Pccu\SRC3\PccuClub\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/PccuClub/Template/校外建議場地_template.xlsx
+++ b/PccuClub/Template/校外建議場地_template.xlsx
@@ -406,12 +406,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A580">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A580">
       <formula1>"臺北市,臺中市,基隆市,臺南市,高雄市,新北市(台北縣),宜蘭縣,桃園市(桃園縣),新竹縣,苗栗縣,臺中縣,南投縣,彰化縣,雲林縣,嘉義縣,臺南縣,高雄縣,屏東縣,花蓮縣,臺東縣,澎湖縣,陽明山,金門縣,連江縣,嘉義市,新竹市"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B400">
       <formula1>"學校-大學,學校-科大,學校-專科,學校-高中,學校-高職,學校-國中,學校-國小,學校-特殊教育,學校-完全學校,學校-軍警,學校-宗教研修,學校-幼兒園,環境教育設施場所,歷史古蹟,體育場館-室內,體育場館-室外,展演場館,社區中心,商務中心,會議中心,飯店旅宿,餐飲店家,開放場域-公園綠地,開放場域-山林,開放場域-水域,開放場域-複合,公益社福機構,政府機關,宗教場所,餐飲店家"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"臺北市,臺中市,基隆市,臺南市,高雄市,新北市(台北縣),宜蘭縣,桃園市(桃園縣),新竹縣,苗栗縣,南投縣,彰化縣,雲林縣,嘉義縣,臺南縣,高雄縣,屏東縣,花蓮縣,臺東縣,澎湖縣,陽明山,金門縣,連江縣,嘉義市,新竹市"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
